--- a/Documents/Project_User_stories.xlsx
+++ b/Documents/Project_User_stories.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adarsh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCA Main_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,38 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>FEATURES</t>
   </si>
   <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>URL config</t>
-  </si>
-  <si>
-    <t>model creation for login</t>
-  </si>
-  <si>
-    <t>Signup</t>
-  </si>
-  <si>
-    <t>Model creation for SignUp</t>
-  </si>
-  <si>
-    <t>View definition</t>
-  </si>
-  <si>
-    <t>Template designing</t>
-  </si>
-  <si>
     <t>Password Management</t>
   </si>
   <si>
-    <t>Forgot password</t>
-  </si>
-  <si>
     <t>Change Password</t>
   </si>
   <si>
@@ -65,9 +41,6 @@
     <t>Contact us</t>
   </si>
   <si>
-    <t>FAQ's</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -80,54 +53,18 @@
     <t>Deleting Rules</t>
   </si>
   <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>Match Results</t>
-  </si>
-  <si>
-    <t>Todays Match</t>
-  </si>
-  <si>
-    <t>General rules</t>
-  </si>
-  <si>
-    <t>Adding Rules</t>
-  </si>
-  <si>
     <t>Ticket Booking</t>
   </si>
   <si>
-    <t>Template design</t>
-  </si>
-  <si>
     <t>MODULES</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Cancellation</t>
-  </si>
-  <si>
-    <t>Automatic fixture creation</t>
-  </si>
-  <si>
     <t>Teams management</t>
   </si>
   <si>
-    <t>Live score</t>
-  </si>
-  <si>
-    <t>Template Design</t>
-  </si>
-  <si>
     <t>Prediction</t>
   </si>
   <si>
-    <t>View Defintion</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
@@ -140,7 +77,76 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>User prediction</t>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>SUBMODULES</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Forgot Management</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Rules </t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Change Paasword</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Club registration</t>
+  </si>
+  <si>
+    <t>Club details form</t>
+  </si>
+  <si>
+    <t>Players details form</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Live Score</t>
+  </si>
+  <si>
+    <t>Booking form</t>
+  </si>
+  <si>
+    <t>Payment Form</t>
+  </si>
+  <si>
+    <t>Cancellation Form</t>
+  </si>
+  <si>
+    <t>Edit Profile form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction Form </t>
+  </si>
+  <si>
+    <t>User prediction form</t>
+  </si>
+  <si>
+    <t>Fixture</t>
+  </si>
+  <si>
+    <t>Fixture form</t>
+  </si>
+  <si>
+    <t>FAQ</t>
   </si>
 </sst>
 </file>
@@ -458,217 +464,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
